--- a/result/with_base/134/arousal/s15_1.xlsx
+++ b/result/with_base/134/arousal/s15_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7725000083446503</v>
+        <v>0.6618303656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41708.326171875</v>
+        <v>11305.76318359375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.781590916893699</v>
+        <v>0.6983981097445768</v>
       </c>
       <c r="E2" t="n">
-        <v>41710.47088068182</v>
+        <v>11306.1845703125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8125</v>
+        <v>0.7751116156578064</v>
       </c>
       <c r="C3" t="n">
-        <v>40940.646484375</v>
+        <v>11012.45458984375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.840568179433996</v>
+        <v>0.8196559863931993</v>
       </c>
       <c r="E3" t="n">
-        <v>40940.63458806818</v>
+        <v>11011.38597196691</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8624999821186066</v>
+        <v>0.8225446343421936</v>
       </c>
       <c r="C4" t="n">
-        <v>40175.587890625</v>
+        <v>10721.42919921875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8747727274894714</v>
+        <v>0.8641675430185655</v>
       </c>
       <c r="E4" t="n">
-        <v>40175.59232954546</v>
+        <v>10720.61575137868</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.875</v>
+        <v>0.84765625</v>
       </c>
       <c r="C5" t="n">
-        <v>39420.705078125</v>
+        <v>10435.20166015625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9096590876579285</v>
+        <v>0.8807773099226111</v>
       </c>
       <c r="E5" t="n">
-        <v>39419.91725852273</v>
+        <v>10434.36092601103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.8465401828289032</v>
       </c>
       <c r="C6" t="n">
-        <v>38676.412109375</v>
+        <v>10153.54541015625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9343181848526001</v>
+        <v>0.8950236334520227</v>
       </c>
       <c r="E6" t="n">
-        <v>38675.52876420454</v>
+        <v>10152.79469209559</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8761160671710968</v>
       </c>
       <c r="C7" t="n">
-        <v>37943.44140625</v>
+        <v>9878.076171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9459090828895569</v>
+        <v>0.9138655452167287</v>
       </c>
       <c r="E7" t="n">
-        <v>37942.71768465909</v>
+        <v>9877.286362591913</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.8677455484867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37222.9609375</v>
+        <v>9608.12744140625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9386363625526428</v>
+        <v>0.9246980057043188</v>
       </c>
       <c r="E8" t="n">
-        <v>37221.54438920454</v>
+        <v>9607.224781709559</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9375</v>
+        <v>0.8722098171710968</v>
       </c>
       <c r="C9" t="n">
-        <v>36512.115234375</v>
+        <v>9343.765625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9538636315952648</v>
+        <v>0.9371060939396129</v>
       </c>
       <c r="E9" t="n">
-        <v>36511.04012784091</v>
+        <v>9343.014418658087</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.8878348171710968</v>
       </c>
       <c r="C10" t="n">
-        <v>35814.34765625</v>
+        <v>9085.70751953125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9599999947981401</v>
+        <v>0.9303440136068007</v>
       </c>
       <c r="E10" t="n">
-        <v>35812.82670454546</v>
+        <v>9085.043658088236</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9375</v>
+        <v>0.8699776828289032</v>
       </c>
       <c r="C11" t="n">
-        <v>35127.95703125</v>
+        <v>8834.09716796875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9677272764119235</v>
+        <v>0.922137604040258</v>
       </c>
       <c r="E11" t="n">
-        <v>35126.59801136364</v>
+        <v>8833.097828584559</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.91015625</v>
       </c>
       <c r="C12" t="n">
-        <v>34454.0625</v>
+        <v>8587.279296875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9693181785670194</v>
+        <v>0.9505646018420949</v>
       </c>
       <c r="E12" t="n">
-        <v>34452.1796875</v>
+        <v>8586.76424632353</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8934151828289032</v>
       </c>
       <c r="C13" t="n">
-        <v>33790.296875</v>
+        <v>8347.18603515625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9736363725228743</v>
+        <v>0.956604515804964</v>
       </c>
       <c r="E13" t="n">
-        <v>33789.40553977273</v>
+        <v>8346.487074908087</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C14" t="n">
-        <v>33139.453125</v>
+        <v>8112.614501953125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9757954586635936</v>
+        <v>0.9688156527631423</v>
       </c>
       <c r="E14" t="n">
-        <v>33138.43927556818</v>
+        <v>8112.019215303309</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9045758843421936</v>
       </c>
       <c r="C15" t="n">
-        <v>32499.8447265625</v>
+        <v>7884.194580078125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9788636456836354</v>
+        <v>0.9629726900773889</v>
       </c>
       <c r="E15" t="n">
-        <v>32498.90234375</v>
+        <v>7883.492417279412</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9375</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31871.634765625</v>
+        <v>7661.02001953125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9840909188443964</v>
+        <v>0.973214286215165</v>
       </c>
       <c r="E16" t="n">
-        <v>31870.79847301136</v>
+        <v>7660.458036534927</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9162946343421936</v>
       </c>
       <c r="C17" t="n">
-        <v>31254.396484375</v>
+        <v>7443.619384765625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9828409173271873</v>
+        <v>0.976299895959742</v>
       </c>
       <c r="E17" t="n">
-        <v>31253.88139204546</v>
+        <v>7443.09432444853</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C18" t="n">
-        <v>30648.7685546875</v>
+        <v>7231.72705078125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9873863729563627</v>
+        <v>0.9673056707662695</v>
       </c>
       <c r="E18" t="n">
-        <v>30648.06409801136</v>
+        <v>7231.226878446691</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9302455484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>30053.7763671875</v>
+        <v>7025.06494140625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9804359253715066</v>
       </c>
       <c r="E19" t="n">
-        <v>30053.12855113636</v>
+        <v>7024.639476102941</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9375</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29469.80859375</v>
+        <v>6823.896240234375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9882954629984769</v>
+        <v>0.9755777295897988</v>
       </c>
       <c r="E20" t="n">
-        <v>29469.06782670454</v>
+        <v>6823.429630055147</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.8939732015132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28896.345703125</v>
+        <v>6628.20703125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9560793077244478</v>
       </c>
       <c r="E21" t="n">
-        <v>28895.556640625</v>
+        <v>6627.4775390625</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C22" t="n">
-        <v>28333.0986328125</v>
+        <v>6436.74658203125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9789915961377761</v>
       </c>
       <c r="E22" t="n">
-        <v>28332.48668323864</v>
+        <v>6436.323500689338</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.8911830484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27780.06640625</v>
+        <v>6250.669921875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9770220588235294</v>
       </c>
       <c r="E23" t="n">
-        <v>27779.66708096591</v>
+        <v>6250.298856847427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C24" t="n">
-        <v>27237.3310546875</v>
+        <v>6069.368408203125</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9822085079024819</v>
       </c>
       <c r="E24" t="n">
-        <v>27236.81551846591</v>
+        <v>6069.043428308823</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26704.349609375</v>
+        <v>5892.914794921875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9831932783126831</v>
       </c>
       <c r="E25" t="n">
-        <v>26704.01189630682</v>
+        <v>5892.577464384191</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26181.6162109375</v>
+        <v>5721.033935546875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9945454597473145</v>
+        <v>0.9875262590015635</v>
       </c>
       <c r="E26" t="n">
-        <v>26180.89719460227</v>
+        <v>5720.694077435662</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9129464328289032</v>
       </c>
       <c r="C27" t="n">
-        <v>25668.1025390625</v>
+        <v>5553.66845703125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9953409108248624</v>
+        <v>0.9814863450386945</v>
       </c>
       <c r="E27" t="n">
-        <v>25667.36079545454</v>
+        <v>5553.402717141544</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9347098171710968</v>
       </c>
       <c r="C28" t="n">
-        <v>25164.1005859375</v>
+        <v>5390.760498046875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.988839286215165</v>
       </c>
       <c r="E28" t="n">
-        <v>25163.35724431818</v>
+        <v>5390.527803308823</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9291294515132904</v>
       </c>
       <c r="C29" t="n">
-        <v>24669.21484375</v>
+        <v>5232.27001953125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9923863681879911</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E29" t="n">
-        <v>24668.64133522727</v>
+        <v>5231.994025735294</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9073660671710968</v>
       </c>
       <c r="C30" t="n">
-        <v>24183.4287109375</v>
+        <v>5078.0126953125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9795824569814345</v>
       </c>
       <c r="E30" t="n">
-        <v>24183.04669744318</v>
+        <v>5077.75448069853</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23707.1025390625</v>
+        <v>4927.737060546875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9903492647058824</v>
       </c>
       <c r="E31" t="n">
-        <v>23706.47567471591</v>
+        <v>4927.567526424632</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9190848171710968</v>
       </c>
       <c r="C32" t="n">
-        <v>23239.2001953125</v>
+        <v>4781.847412109375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9864772829142484</v>
+        <v>0.9740677510990816</v>
       </c>
       <c r="E32" t="n">
-        <v>23238.73011363636</v>
+        <v>4781.556410845588</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9375</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C33" t="n">
-        <v>22780.3154296875</v>
+        <v>4639.937744140625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9541754196671879</v>
       </c>
       <c r="E33" t="n">
-        <v>22779.56995738636</v>
+        <v>4639.547392003677</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C34" t="n">
-        <v>22329.5498046875</v>
+        <v>4501.5107421875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9721638665479773</v>
       </c>
       <c r="E34" t="n">
-        <v>22328.90944602273</v>
+        <v>4501.233771829044</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94140625</v>
       </c>
       <c r="C35" t="n">
-        <v>21887.2470703125</v>
+        <v>4366.842041015625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9916622884133283</v>
       </c>
       <c r="E35" t="n">
-        <v>21886.63299005682</v>
+        <v>4366.650677849265</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21453.1728515625</v>
+        <v>4235.924072265625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9934348744504592</v>
       </c>
       <c r="E36" t="n">
-        <v>21452.59552556818</v>
+        <v>4235.769646139706</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C37" t="n">
-        <v>21027.1162109375</v>
+        <v>4108.738525390625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9946590932932767</v>
+        <v>0.9797137590015635</v>
       </c>
       <c r="E37" t="n">
-        <v>21026.62872869318</v>
+        <v>4108.47509765625</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9375</v>
       </c>
       <c r="C38" t="n">
-        <v>20609.2060546875</v>
+        <v>3984.781372070312</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.987854515804964</v>
       </c>
       <c r="E38" t="n">
-        <v>20608.60262784091</v>
+        <v>3984.584860409007</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C39" t="n">
-        <v>20198.5283203125</v>
+        <v>3864.302734375</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9843093472368577</v>
       </c>
       <c r="E39" t="n">
-        <v>20198.31924715909</v>
+        <v>3864.107666015625</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C40" t="n">
-        <v>19796.39453125</v>
+        <v>3747.069458007812</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E40" t="n">
-        <v>19795.71058238636</v>
+        <v>3746.916719324448</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C41" t="n">
-        <v>19400.974609375</v>
+        <v>3633.115234375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9926470588235294</v>
       </c>
       <c r="E41" t="n">
-        <v>19400.53497869318</v>
+        <v>3632.954489315257</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9453125</v>
       </c>
       <c r="C42" t="n">
-        <v>19013.3212890625</v>
+        <v>3522.248291015625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E42" t="n">
-        <v>19012.80060369318</v>
+        <v>3522.125244140625</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18632.5146484375</v>
+        <v>3414.622924804688</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9961363673210144</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E43" t="n">
-        <v>18632.28533380682</v>
+        <v>3414.402846392463</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18259.2451171875</v>
+        <v>3309.888549804688</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9740021018420949</v>
       </c>
       <c r="E44" t="n">
-        <v>18258.89009232954</v>
+        <v>3309.654225068934</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.92578125</v>
       </c>
       <c r="C45" t="n">
-        <v>17893.1005859375</v>
+        <v>3207.931762695312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9908088235294118</v>
       </c>
       <c r="E45" t="n">
-        <v>17892.47514204546</v>
+        <v>3207.766285615809</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9425223171710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17533.3046875</v>
+        <v>3108.922485351562</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9831276255495408</v>
       </c>
       <c r="E46" t="n">
-        <v>17532.95578835227</v>
+        <v>3108.776955997243</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C47" t="n">
-        <v>17180.6005859375</v>
+        <v>3012.715087890625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9764968472368577</v>
       </c>
       <c r="E47" t="n">
-        <v>17180.17489346591</v>
+        <v>3012.542609719669</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.93359375</v>
       </c>
       <c r="C48" t="n">
-        <v>16834.2841796875</v>
+        <v>2919.12451171875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9870667001780342</v>
       </c>
       <c r="E48" t="n">
-        <v>16833.97425426136</v>
+        <v>2918.971277573529</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9380580484867096</v>
       </c>
       <c r="C49" t="n">
-        <v>16494.5380859375</v>
+        <v>2828.318237304688</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9965909123420715</v>
+        <v>0.9655987409984365</v>
       </c>
       <c r="E49" t="n">
-        <v>16494.30646306818</v>
+        <v>2828.125215418198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C50" t="n">
-        <v>16161.40478515625</v>
+        <v>2739.93017578125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9689469547832713</v>
       </c>
       <c r="E50" t="n">
-        <v>16161.07776988636</v>
+        <v>2739.764806410846</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,905 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9084821343421936</v>
       </c>
       <c r="C51" t="n">
-        <v>15834.599609375</v>
+        <v>2654.053588867188</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9917045452378013</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E51" t="n">
-        <v>15834.12375710227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15513.630859375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15513.27761008523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15198.86328125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15198.49911221591</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14890.01171875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9893181920051575</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14889.69921875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14587.01220703125</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14586.66654829545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14289.50244140625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14289.359375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13997.93798828125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13997.67729048295</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13711.74462890625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13711.52752130682</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13431.1591796875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13430.78196022727</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13155.65087890625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13155.35893110795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12885.318359375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12885.17151988636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12620.56005859375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12620.14311079545</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12360.34619140625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12360.13449928977</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12105.31298828125</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12105.07883522727</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11855.0556640625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11854.90704900568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11609.71337890625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9976136359301481</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11609.48943536932</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11368.9951171875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11368.75346235795</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11132.94091796875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11132.61550071023</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10901.30419921875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10900.98384232955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10674.0869140625</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10673.8173828125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10451.2939453125</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10451.01766690341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10232.818359375</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10232.51447088068</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10018.501953125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10018.19060724432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9808.17333984375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9807.983132102272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9602.10693359375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9601.852272727272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9399.990234375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9399.6875</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9201.654296875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9937500032511625</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9201.438299005682</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C78" t="n">
-        <v>9007.26318359375</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E78" t="n">
-        <v>9007.025124289772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8816.6083984375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8816.372691761364</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8629.63134765625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8629.42578125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8446.1669921875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8446.094549005682</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6410256410256411</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.6581196581196581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6837606837606838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7008547008547008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.905982905982906</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.008130081300813009</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.905982905982906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.008130081300813009</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9572649572649573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01626016260162602</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9572649572649573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.01626016260162602</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9658119658119658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.03252032520325204</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9658119658119658</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.03252032520325204</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9914529914529915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9914529914529915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6260162601626016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6910569105691057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7317073170731707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7479674796747967</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.008547008547008548</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9024390243902439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.008547008547008548</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.967479674796748</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.03418803418803419</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.967479674796748</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.03418803418803419</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.983739837398374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.04273504273504274</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.983739837398374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.04273504273504274</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9918699186991869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.09401709401709402</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9918699186991869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.09401709401709402</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9977763880202905</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2653.892290900735</v>
       </c>
     </row>
   </sheetData>
